--- a/biology/Botanique/Brassiophoenix/Brassiophoenix.xlsx
+++ b/biology/Botanique/Brassiophoenix/Brassiophoenix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassiophoenix est un genre de la famille des palmiers, les Arecaceae et de la sous-famille des Arecoideae, natif de la Papouasie-Nouvelle-Guinée.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2016)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2016)
 Brassiophoenix drymophloeoides Burret, Notizbl. Bot. Gart. Berlin-Dahlem 12: 346 (1935).
 Brassiophoenix schumannii (Becc.) Essig, Principes 19: 102 (1975).
 </t>
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
 Sous-tribu des Ptychospermatinae
-Le genre  Brassiophoenix  partage sa sous-tribu avec treize autres genres : Ptychosperma, Ponapea, Adonidia, Balaka, Veitchia, Carpentaria, Wodyetia, Drymophloeus, Normanbya,  Ptychococcus, Jailoloa,   Wallaceodoxa et Manjekia [2].
+Le genre  Brassiophoenix  partage sa sous-tribu avec treize autres genres : Ptychosperma, Ponapea, Adonidia, Balaka, Veitchia, Carpentaria, Wodyetia, Drymophloeus, Normanbya,  Ptychococcus, Jailoloa,   Wallaceodoxa et Manjekia .
 </t>
         </is>
       </c>
